--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeaDK_EN.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeaDK_EN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075BA016-2320-4B24-97E7-449183678B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF3CF19-7C3A-4016-9E81-D1004E0768A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15480" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21420" windowHeight="10515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="301">
   <si>
     <t>UserName</t>
   </si>
@@ -168,12 +168,6 @@
     <t>Featured</t>
   </si>
   <si>
-    <t>SALE,New Arrivals,Best Sellers</t>
-  </si>
-  <si>
-    <t>Outdoor Packs,Kids Packs &amp; Carriers,Day Packs</t>
-  </si>
-  <si>
     <t>Shop all</t>
   </si>
   <si>
@@ -505,15 +499,6 @@
   </si>
   <si>
     <t>Child Carriers,Childrens Backpacks</t>
-  </si>
-  <si>
-    <t>College &amp; Uni Bags,Lifestyle Backpacks,Burn Bags,Tote Bags,Sling Bags</t>
-  </si>
-  <si>
-    <t>Backpack,Travel,Hydration &amp; Reservoirs,Apparel &amp; Goods</t>
-  </si>
-  <si>
-    <t>Backpacking Backpacks,Hiking Backpacks,Cycling Backpacks,Running Backpacks,Climbing &amp; Mountaineering Packs,Ski &amp; Snowboarding Backpacks,Waterproof Backpacks</t>
   </si>
   <si>
     <t>Carry-On Luggage,Duffel Bags,Travel Backpacks,Wheeled Bag,Checked Luggage</t>
@@ -858,9 +843,6 @@
     <t>Qatesting@1234</t>
   </si>
   <si>
-    <t>GIFT CARDS</t>
-  </si>
-  <si>
     <t>Qatesting@123</t>
   </si>
   <si>
@@ -904,6 +886,78 @@
   </si>
   <si>
     <t>Account Information,Address Book,My Orders,Gift Registry,My Wishlist,My Out of Stock Subscriptions,Stored Payment Methods,Gift Cards,Newsletter Subscriptions</t>
+  </si>
+  <si>
+    <t>Backpacks</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>Daypacks</t>
+  </si>
+  <si>
+    <t>Travels</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Backpacking Backpacks,Hiking Backpacks,Cycling Backpacks,Running Backpacks,Climbing &amp; Mountaineering Packs,Skiing Snowboarding Backpacks,Waterproof Backpacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpacks &amp; Bags </t>
+  </si>
+  <si>
+    <t>College &amp; Uni Bags,Lifestyle Backpacks,Bum Bags,Tote Bags,Sling Bags</t>
+  </si>
+  <si>
+    <t>Travel Backpacks,Hold Luggage,Carry-On Luggage,Wheeled Luggage,Duffel Bags</t>
+  </si>
+  <si>
+    <t>Backpack,Travel,Hydration &amp; Reservoirs</t>
+  </si>
+  <si>
+    <t>SALE,Gift Cards,Best Sellers,Gift Guide</t>
+  </si>
+  <si>
+    <t>ShopAll</t>
+  </si>
+  <si>
+    <t>Outdoor Backpacks,Kids Packs &amp; Carriers,Day Packs</t>
+  </si>
+  <si>
+    <t>Shop by Activity</t>
+  </si>
+  <si>
+    <t>Everyday,Travel,Skiing &amp; Snowboarding,Backpacking,Hiking,Climbing &amp; Mountaineering,Trail Running</t>
+  </si>
+  <si>
+    <t>Shop by Collections</t>
+  </si>
+  <si>
+    <t>Soelden / Sopris,New Mutant,New Zealot,New Farpoint / Fairview,Transporter,Daylite,Atmos LT / Aura LT,New Exos / Eja,UNLTD Hike,Talon &amp; Tempest,Waterproof,Archeon,Escapist,Poco Changing ,Packs,Osprey Pro,Aether &amp; Ariel,Firn,Osprey Earth,Camera</t>
+  </si>
+  <si>
+    <t>FeaturedShopAll</t>
+  </si>
+  <si>
+    <t>Shop by Activity,Shop by Collections</t>
+  </si>
+  <si>
+    <t>ImageShopAll</t>
+  </si>
+  <si>
+    <t>Backpacks &amp; Bags,Accessories,Featured</t>
   </si>
 </sst>
 </file>
@@ -913,7 +967,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +1045,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1025,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1060,6 +1120,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,16 +1453,16 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1419,17 +1481,17 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1523,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1558,10 +1620,10 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1639,10 +1701,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -1683,70 +1745,70 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>123</v>
@@ -1754,10 +1816,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1790,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1826,16 +1888,16 @@
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -1858,96 +1920,96 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O6" t="s">
         <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2029,10 +2091,10 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -2053,68 +2115,68 @@
         <v>10</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -2122,60 +2184,60 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" t="s">
-        <v>130</v>
-      </c>
       <c r="O4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y4">
         <v>2</v>
       </c>
       <c r="Z4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AA4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
@@ -2218,52 +2280,52 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2356,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2304,7 +2366,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="9"/>
@@ -2382,13 +2444,13 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -2411,141 +2473,141 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2619,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -2628,7 +2690,7 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -2651,54 +2713,54 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -2778,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -2787,126 +2849,126 @@
         <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="R7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2973,13 +3035,13 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -3002,32 +3064,32 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3047,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F81B88-6947-41A5-88AD-6EBA8159F07F}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,31 +3144,47 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -3129,14 +3207,18 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="M2" s="25"/>
+      <c r="P2" s="2"/>
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
       <c r="AD2" t="s">
@@ -3148,9 +3230,14 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="25"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
@@ -3158,10 +3245,18 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="M4" s="25"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
@@ -3169,64 +3264,116 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>158</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
+      <c r="H5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="25"/>
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>156</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>289</v>
+      </c>
+      <c r="M6" s="25"/>
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
+      <c r="M7" s="25"/>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>290</v>
+      </c>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="2"/>
+      <c r="A8" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="P8" s="25" t="s">
+        <v>292</v>
+      </c>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" s="2"/>
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>298</v>
+      </c>
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="25"/>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -3349,19 +3496,19 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -3391,7 +3538,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -3415,27 +3562,27 @@
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3443,67 +3590,67 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="S3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="U3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="Z5">
         <v>123</v>
@@ -3511,13 +3658,13 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Z6">
         <v>1234</v>
@@ -3525,13 +3672,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Z7">
         <v>123</v>
@@ -3539,13 +3686,13 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Z8">
         <v>123</v>
@@ -3553,15 +3700,15 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3569,37 +3716,37 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -3608,13 +3755,13 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Z11">
         <v>12</v>
@@ -3622,13 +3769,13 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -3637,16 +3784,16 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3658,45 +3805,45 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -3704,25 +3851,25 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T15" s="5"/>
       <c r="V15" s="5"/>
@@ -3730,19 +3877,19 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -3750,107 +3897,107 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T17" s="5"/>
       <c r="V17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AB23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AC23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3904,34 +4051,34 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -3955,13 +4102,13 @@
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>17</v>
@@ -3991,7 +4138,7 @@
         <v>18</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>17</v>
@@ -4000,24 +4147,24 @@
         <v>19</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4030,71 +4177,71 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="W3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="X3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="AE5">
         <v>123</v>
@@ -4102,13 +4249,13 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE6">
         <v>1234</v>
@@ -4116,13 +4263,13 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE7">
         <v>123</v>
@@ -4130,13 +4277,13 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE8">
         <v>123</v>
@@ -4144,15 +4291,15 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4165,21 +4312,21 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -4188,16 +4335,16 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4214,192 +4361,192 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="W13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="AA13" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AB14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L20" s="5"/>
       <c r="P20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="W21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AL22" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="W24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG25" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AH25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AJ25" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AL25" s="5"/>
     </row>
@@ -4536,32 +4683,32 @@
         <v>26</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -4576,13 +4723,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
@@ -4590,93 +4737,93 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
       <c r="AF4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
       <c r="AF5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="AF6" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG9" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AH9" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4733,10 +4880,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4751,7 +4898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -4780,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -4822,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>15</v>
@@ -4840,19 +4987,19 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4865,67 +5012,67 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4933,28 +5080,28 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -4962,30 +5109,30 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -5049,7 +5196,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -5061,28 +5208,28 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>15</v>
@@ -5091,198 +5238,198 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="S2" t="s">
         <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" t="s">
-        <v>82</v>
-      </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N4">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" t="s">
         <v>81</v>
       </c>
-      <c r="R4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" t="s">
-        <v>83</v>
-      </c>
       <c r="T4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H5" s="10"/>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="V6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5365,10 +5512,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -5377,7 +5524,7 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -5400,155 +5547,155 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K6" s="5"/>
       <c r="O6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M9" t="s">
         <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5609,47 +5756,47 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5703,22 +5850,22 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5742,17 +5889,17 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -5764,7 +5911,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
@@ -5774,41 +5921,41 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
@@ -5816,27 +5963,27 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
